--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Hbegf-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Hbegf-Egfr.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.47086066666667</v>
+        <v>8.459557</v>
       </c>
       <c r="H2">
-        <v>31.412582</v>
+        <v>25.378671</v>
       </c>
       <c r="I2">
-        <v>0.340259118787888</v>
+        <v>0.3030961495696597</v>
       </c>
       <c r="J2">
-        <v>0.340259118787888</v>
+        <v>0.3030961495696597</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.57413</v>
+        <v>1.701929666666667</v>
       </c>
       <c r="N2">
-        <v>4.72239</v>
+        <v>5.105789</v>
       </c>
       <c r="O2">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="P2">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="Q2">
-        <v>16.48249590122</v>
+        <v>14.39757102515767</v>
       </c>
       <c r="R2">
-        <v>148.34246311098</v>
+        <v>129.578139226419</v>
       </c>
       <c r="S2">
-        <v>0.006889779871967189</v>
+        <v>0.006382061895363601</v>
       </c>
       <c r="T2">
-        <v>0.006889779871967189</v>
+        <v>0.006382061895363601</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.47086066666667</v>
+        <v>8.459557</v>
       </c>
       <c r="H3">
-        <v>31.412582</v>
+        <v>25.378671</v>
       </c>
       <c r="I3">
-        <v>0.340259118787888</v>
+        <v>0.3030961495696597</v>
       </c>
       <c r="J3">
-        <v>0.340259118787888</v>
+        <v>0.3030961495696597</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>187.511841</v>
       </c>
       <c r="O3">
-        <v>0.804011796385049</v>
+        <v>0.7732971809418951</v>
       </c>
       <c r="P3">
-        <v>0.8040117963850492</v>
+        <v>0.7732971809418953</v>
       </c>
       <c r="Q3">
-        <v>654.4701201537181</v>
+        <v>528.7557023714791</v>
       </c>
       <c r="R3">
-        <v>5890.231081383462</v>
+        <v>4758.801321343311</v>
       </c>
       <c r="S3">
-        <v>0.2735723453330436</v>
+        <v>0.2343833980165609</v>
       </c>
       <c r="T3">
-        <v>0.2735723453330436</v>
+        <v>0.2343833980165609</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.47086066666667</v>
+        <v>8.459557</v>
       </c>
       <c r="H4">
-        <v>31.412582</v>
+        <v>25.378671</v>
       </c>
       <c r="I4">
-        <v>0.340259118787888</v>
+        <v>0.3030961495696597</v>
       </c>
       <c r="J4">
-        <v>0.340259118787888</v>
+        <v>0.3030961495696597</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.182903</v>
+        <v>0.4338690000000001</v>
       </c>
       <c r="N4">
-        <v>0.548709</v>
+        <v>1.301607</v>
       </c>
       <c r="O4">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265532</v>
       </c>
       <c r="P4">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265533</v>
       </c>
       <c r="Q4">
-        <v>1.915151828515333</v>
+        <v>3.670339536033</v>
       </c>
       <c r="R4">
-        <v>17.236366456638</v>
+        <v>33.03305582429701</v>
       </c>
       <c r="S4">
-        <v>0.0008005446868571306</v>
+        <v>0.001626964302175145</v>
       </c>
       <c r="T4">
-        <v>0.0008005446868571306</v>
+        <v>0.001626964302175145</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.47086066666667</v>
+        <v>8.459557</v>
       </c>
       <c r="H5">
-        <v>31.412582</v>
+        <v>25.378671</v>
       </c>
       <c r="I5">
-        <v>0.340259118787888</v>
+        <v>0.3030961495696597</v>
       </c>
       <c r="J5">
-        <v>0.340259118787888</v>
+        <v>0.3030961495696597</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.38529933333333</v>
+        <v>15.972384</v>
       </c>
       <c r="N5">
-        <v>40.155898</v>
+        <v>47.917152</v>
       </c>
       <c r="O5">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="P5">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="Q5">
-        <v>140.1556043009596</v>
+        <v>135.119292873888</v>
       </c>
       <c r="R5">
-        <v>1261.400438708636</v>
+        <v>1216.073635864992</v>
       </c>
       <c r="S5">
-        <v>0.05858586389120075</v>
+        <v>0.05989480370488201</v>
       </c>
       <c r="T5">
-        <v>0.05858586389120075</v>
+        <v>0.059894803704882</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.47086066666667</v>
+        <v>8.459557</v>
       </c>
       <c r="H6">
-        <v>31.412582</v>
+        <v>25.378671</v>
       </c>
       <c r="I6">
-        <v>0.340259118787888</v>
+        <v>0.3030961495696597</v>
       </c>
       <c r="J6">
-        <v>0.340259118787888</v>
+        <v>0.3030961495696597</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.09380766666666666</v>
+        <v>0.2157183333333333</v>
       </c>
       <c r="N6">
-        <v>0.281423</v>
+        <v>0.647155</v>
       </c>
       <c r="O6">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="P6">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="Q6">
-        <v>0.9822470071317778</v>
+        <v>1.824881536778334</v>
       </c>
       <c r="R6">
-        <v>8.840223064185999</v>
+        <v>16.423933831005</v>
       </c>
       <c r="S6">
-        <v>0.0004105850048193017</v>
+        <v>0.0008089216506780896</v>
       </c>
       <c r="T6">
-        <v>0.0004105850048193017</v>
+        <v>0.0008089216506780894</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>38.529407</v>
       </c>
       <c r="I7">
-        <v>0.417348120993043</v>
+        <v>0.4601547065605718</v>
       </c>
       <c r="J7">
-        <v>0.4173481209930429</v>
+        <v>0.4601547065605718</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.57413</v>
+        <v>1.701929666666667</v>
       </c>
       <c r="N7">
-        <v>4.72239</v>
+        <v>5.105789</v>
       </c>
       <c r="O7">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="P7">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="Q7">
-        <v>20.21676514697</v>
+        <v>21.85811360412478</v>
       </c>
       <c r="R7">
-        <v>181.95088632273</v>
+        <v>196.723022437123</v>
       </c>
       <c r="S7">
-        <v>0.008450726299017117</v>
+        <v>0.009689122817568171</v>
       </c>
       <c r="T7">
-        <v>0.008450726299017117</v>
+        <v>0.009689122817568169</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>38.529407</v>
       </c>
       <c r="I8">
-        <v>0.417348120993043</v>
+        <v>0.4601547065605718</v>
       </c>
       <c r="J8">
-        <v>0.4173481209930429</v>
+        <v>0.4601547065605718</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>187.511841</v>
       </c>
       <c r="O8">
-        <v>0.804011796385049</v>
+        <v>0.7732971809418951</v>
       </c>
       <c r="P8">
-        <v>0.8040117963850492</v>
+        <v>0.7732971809418953</v>
       </c>
       <c r="Q8">
         <v>802.7466710231431</v>
@@ -948,10 +948,10 @@
         <v>7224.720039208287</v>
       </c>
       <c r="S8">
-        <v>0.3355528124775413</v>
+        <v>0.3558363373804352</v>
       </c>
       <c r="T8">
-        <v>0.3355528124775413</v>
+        <v>0.3558363373804352</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,40 +980,40 @@
         <v>38.529407</v>
       </c>
       <c r="I9">
-        <v>0.417348120993043</v>
+        <v>0.4601547065605718</v>
       </c>
       <c r="J9">
-        <v>0.4173481209930429</v>
+        <v>0.4601547065605718</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.182903</v>
+        <v>0.4338690000000001</v>
       </c>
       <c r="N9">
-        <v>0.548709</v>
+        <v>1.301607</v>
       </c>
       <c r="O9">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265532</v>
       </c>
       <c r="P9">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265533</v>
       </c>
       <c r="Q9">
-        <v>2.349048042840333</v>
+        <v>5.572238428561</v>
       </c>
       <c r="R9">
-        <v>21.141432385563</v>
+        <v>50.150145857049</v>
       </c>
       <c r="S9">
-        <v>0.0009819158470197049</v>
+        <v>0.00247002570674316</v>
       </c>
       <c r="T9">
-        <v>0.0009819158470197047</v>
+        <v>0.002470025706743161</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>38.529407</v>
       </c>
       <c r="I10">
-        <v>0.417348120993043</v>
+        <v>0.4601547065605718</v>
       </c>
       <c r="J10">
-        <v>0.4173481209930429</v>
+        <v>0.4601547065605718</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.38529933333333</v>
+        <v>15.972384</v>
       </c>
       <c r="N10">
-        <v>40.155898</v>
+        <v>47.917152</v>
       </c>
       <c r="O10">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="P10">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="Q10">
-        <v>171.9092152769429</v>
+        <v>205.135494632096</v>
       </c>
       <c r="R10">
-        <v>1547.182937492486</v>
+        <v>1846.219451688864</v>
       </c>
       <c r="S10">
-        <v>0.07185905935114399</v>
+        <v>0.09093113146588749</v>
       </c>
       <c r="T10">
-        <v>0.07185905935114398</v>
+        <v>0.09093113146588751</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>38.529407</v>
       </c>
       <c r="I11">
-        <v>0.417348120993043</v>
+        <v>0.4601547065605718</v>
       </c>
       <c r="J11">
-        <v>0.4173481209930429</v>
+        <v>0.4601547065605718</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.09380766666666666</v>
+        <v>0.2157183333333333</v>
       </c>
       <c r="N11">
-        <v>0.281423</v>
+        <v>0.647155</v>
       </c>
       <c r="O11">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="P11">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="Q11">
-        <v>1.204784589573444</v>
+        <v>2.770499820787222</v>
       </c>
       <c r="R11">
-        <v>10.843061306161</v>
+        <v>24.934498387085</v>
       </c>
       <c r="S11">
-        <v>0.0005036070183208702</v>
+        <v>0.0012280891899378</v>
       </c>
       <c r="T11">
-        <v>0.0005036070183208702</v>
+        <v>0.0012280891899378</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.820871333333334</v>
+        <v>1.955432333333333</v>
       </c>
       <c r="H12">
-        <v>5.462614</v>
+        <v>5.866296999999999</v>
       </c>
       <c r="I12">
-        <v>0.0591706923651924</v>
+        <v>0.0700608803720276</v>
       </c>
       <c r="J12">
-        <v>0.05917069236519239</v>
+        <v>0.0700608803720276</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.57413</v>
+        <v>1.701929666666667</v>
       </c>
       <c r="N12">
-        <v>4.72239</v>
+        <v>5.105789</v>
       </c>
       <c r="O12">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="P12">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="Q12">
-        <v>2.86628819194</v>
+        <v>3.328008299259222</v>
       </c>
       <c r="R12">
-        <v>25.79659372746</v>
+        <v>29.952074693333</v>
       </c>
       <c r="S12">
-        <v>0.001198125260302581</v>
+        <v>0.001475217932041666</v>
       </c>
       <c r="T12">
-        <v>0.001198125260302581</v>
+        <v>0.001475217932041666</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.820871333333334</v>
+        <v>1.955432333333333</v>
       </c>
       <c r="H13">
-        <v>5.462614</v>
+        <v>5.866296999999999</v>
       </c>
       <c r="I13">
-        <v>0.0591706923651924</v>
+        <v>0.0700608803720276</v>
       </c>
       <c r="J13">
-        <v>0.05917069236519239</v>
+        <v>0.0700608803720276</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>187.511841</v>
       </c>
       <c r="O13">
-        <v>0.804011796385049</v>
+        <v>0.7732971809418951</v>
       </c>
       <c r="P13">
-        <v>0.8040117963850492</v>
+        <v>0.7732971809418953</v>
       </c>
       <c r="Q13">
-        <v>113.811645312486</v>
+        <v>122.222238924753</v>
       </c>
       <c r="R13">
-        <v>1024.304807812374</v>
+        <v>1100.000150322777</v>
       </c>
       <c r="S13">
-        <v>0.04757393466188545</v>
+        <v>0.05417788128599629</v>
       </c>
       <c r="T13">
-        <v>0.04757393466188545</v>
+        <v>0.0541778812859963</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.820871333333334</v>
+        <v>1.955432333333333</v>
       </c>
       <c r="H14">
-        <v>5.462614</v>
+        <v>5.866296999999999</v>
       </c>
       <c r="I14">
-        <v>0.0591706923651924</v>
+        <v>0.0700608803720276</v>
       </c>
       <c r="J14">
-        <v>0.05917069236519239</v>
+        <v>0.0700608803720276</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.182903</v>
+        <v>0.4338690000000001</v>
       </c>
       <c r="N14">
-        <v>0.548709</v>
+        <v>1.301607</v>
       </c>
       <c r="O14">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265532</v>
       </c>
       <c r="P14">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265533</v>
       </c>
       <c r="Q14">
-        <v>0.3330428294806667</v>
+        <v>0.8484014710310001</v>
       </c>
       <c r="R14">
-        <v>2.997385465326</v>
+        <v>7.635613239279</v>
       </c>
       <c r="S14">
-        <v>0.000139213854310078</v>
+        <v>0.0003760739009917874</v>
       </c>
       <c r="T14">
-        <v>0.000139213854310078</v>
+        <v>0.0003760739009917875</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.820871333333334</v>
+        <v>1.955432333333333</v>
       </c>
       <c r="H15">
-        <v>5.462614</v>
+        <v>5.866296999999999</v>
       </c>
       <c r="I15">
-        <v>0.0591706923651924</v>
+        <v>0.0700608803720276</v>
       </c>
       <c r="J15">
-        <v>0.05917069236519239</v>
+        <v>0.0700608803720276</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>13.38529933333333</v>
+        <v>15.972384</v>
       </c>
       <c r="N15">
-        <v>40.155898</v>
+        <v>47.917152</v>
       </c>
       <c r="O15">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="P15">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="Q15">
-        <v>24.37290784415245</v>
+        <v>31.232916114016</v>
       </c>
       <c r="R15">
-        <v>219.356170597372</v>
+        <v>281.096245026144</v>
       </c>
       <c r="S15">
-        <v>0.01018801830088872</v>
+        <v>0.01384472446526211</v>
       </c>
       <c r="T15">
-        <v>0.01018801830088872</v>
+        <v>0.01384472446526212</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.820871333333334</v>
+        <v>1.955432333333333</v>
       </c>
       <c r="H16">
-        <v>5.462614</v>
+        <v>5.866296999999999</v>
       </c>
       <c r="I16">
-        <v>0.0591706923651924</v>
+        <v>0.0700608803720276</v>
       </c>
       <c r="J16">
-        <v>0.05917069236519239</v>
+        <v>0.0700608803720276</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.09380766666666666</v>
+        <v>0.2157183333333333</v>
       </c>
       <c r="N16">
-        <v>0.281423</v>
+        <v>0.647155</v>
       </c>
       <c r="O16">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="P16">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="Q16">
-        <v>0.1708116910802222</v>
+        <v>0.4218226038927778</v>
       </c>
       <c r="R16">
-        <v>1.537305219722</v>
+        <v>3.796403435035</v>
       </c>
       <c r="S16">
-        <v>7.140028780556738E-05</v>
+        <v>0.0001869827877357299</v>
       </c>
       <c r="T16">
-        <v>7.140028780556737E-05</v>
+        <v>0.0001869827877357299</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.468428</v>
+        <v>2.929608</v>
       </c>
       <c r="H17">
-        <v>10.405284</v>
+        <v>8.788824000000002</v>
       </c>
       <c r="I17">
-        <v>0.1127093839206758</v>
+        <v>0.1049644685352285</v>
       </c>
       <c r="J17">
-        <v>0.1127093839206758</v>
+        <v>0.1049644685352285</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.57413</v>
+        <v>1.701929666666667</v>
       </c>
       <c r="N17">
-        <v>4.72239</v>
+        <v>5.105789</v>
       </c>
       <c r="O17">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="P17">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="Q17">
-        <v>5.45975656764</v>
+        <v>4.985986766904</v>
       </c>
       <c r="R17">
-        <v>49.13780910876</v>
+        <v>44.87388090213601</v>
       </c>
       <c r="S17">
-        <v>0.002282210238728617</v>
+        <v>0.002210155872837357</v>
       </c>
       <c r="T17">
-        <v>0.002282210238728617</v>
+        <v>0.002210155872837357</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.468428</v>
+        <v>2.929608</v>
       </c>
       <c r="H18">
-        <v>10.405284</v>
+        <v>8.788824000000002</v>
       </c>
       <c r="I18">
-        <v>0.1127093839206758</v>
+        <v>0.1049644685352285</v>
       </c>
       <c r="J18">
-        <v>0.1127093839206758</v>
+        <v>0.1049644685352285</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>187.511841</v>
       </c>
       <c r="O18">
-        <v>0.804011796385049</v>
+        <v>0.7732971809418951</v>
       </c>
       <c r="P18">
-        <v>0.8040117963850492</v>
+        <v>0.7732971809418953</v>
       </c>
       <c r="Q18">
-        <v>216.790439885316</v>
+        <v>183.112063162776</v>
       </c>
       <c r="R18">
-        <v>1951.113958967844</v>
+        <v>1648.008568464984</v>
       </c>
       <c r="S18">
-        <v>0.09061967423551472</v>
+        <v>0.08116872761735644</v>
       </c>
       <c r="T18">
-        <v>0.09061967423551473</v>
+        <v>0.08116872761735645</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,46 +1594,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.468428</v>
+        <v>2.929608</v>
       </c>
       <c r="H19">
-        <v>10.405284</v>
+        <v>8.788824000000002</v>
       </c>
       <c r="I19">
-        <v>0.1127093839206758</v>
+        <v>0.1049644685352285</v>
       </c>
       <c r="J19">
-        <v>0.1127093839206758</v>
+        <v>0.1049644685352285</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.182903</v>
+        <v>0.4338690000000001</v>
       </c>
       <c r="N19">
-        <v>0.548709</v>
+        <v>1.301607</v>
       </c>
       <c r="O19">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265532</v>
       </c>
       <c r="P19">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265533</v>
       </c>
       <c r="Q19">
-        <v>0.634385886484</v>
+        <v>1.271066093352</v>
       </c>
       <c r="R19">
-        <v>5.709472978356</v>
+        <v>11.439594840168</v>
       </c>
       <c r="S19">
-        <v>0.0002651770179681349</v>
+        <v>0.0005634299331946961</v>
       </c>
       <c r="T19">
-        <v>0.0002651770179681349</v>
+        <v>0.0005634299331946962</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.468428</v>
+        <v>2.929608</v>
       </c>
       <c r="H20">
-        <v>10.405284</v>
+        <v>8.788824000000002</v>
       </c>
       <c r="I20">
-        <v>0.1127093839206758</v>
+        <v>0.1049644685352285</v>
       </c>
       <c r="J20">
-        <v>0.1127093839206758</v>
+        <v>0.1049644685352285</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>13.38529933333333</v>
+        <v>15.972384</v>
       </c>
       <c r="N20">
-        <v>40.155898</v>
+        <v>47.917152</v>
       </c>
       <c r="O20">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="P20">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="Q20">
-        <v>46.42594699611467</v>
+        <v>46.79282394547201</v>
       </c>
       <c r="R20">
-        <v>417.833522965032</v>
+        <v>421.1354155092481</v>
       </c>
       <c r="S20">
-        <v>0.01940631789431664</v>
+        <v>0.02074201948071891</v>
       </c>
       <c r="T20">
-        <v>0.01940631789431664</v>
+        <v>0.02074201948071891</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.468428</v>
+        <v>2.929608</v>
       </c>
       <c r="H21">
-        <v>10.405284</v>
+        <v>8.788824000000002</v>
       </c>
       <c r="I21">
-        <v>0.1127093839206758</v>
+        <v>0.1049644685352285</v>
       </c>
       <c r="J21">
-        <v>0.1127093839206758</v>
+        <v>0.1049644685352285</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.09380766666666666</v>
+        <v>0.2157183333333333</v>
       </c>
       <c r="N21">
-        <v>0.281423</v>
+        <v>0.647155</v>
       </c>
       <c r="O21">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="P21">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="Q21">
-        <v>0.3253651376813333</v>
+        <v>0.6319701550800001</v>
       </c>
       <c r="R21">
-        <v>2.928286239132</v>
+        <v>5.687731395720001</v>
       </c>
       <c r="S21">
-        <v>0.0001360045341476929</v>
+        <v>0.0002801356311210785</v>
       </c>
       <c r="T21">
-        <v>0.0001360045341476929</v>
+        <v>0.0002801356311210785</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.169900666666666</v>
+        <v>1.722740333333333</v>
       </c>
       <c r="H22">
-        <v>6.509702</v>
+        <v>5.168221</v>
       </c>
       <c r="I22">
-        <v>0.07051268393320077</v>
+        <v>0.06172379496251228</v>
       </c>
       <c r="J22">
-        <v>0.07051268393320077</v>
+        <v>0.06172379496251227</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.57413</v>
+        <v>1.701929666666667</v>
       </c>
       <c r="N22">
-        <v>4.72239</v>
+        <v>5.105789</v>
       </c>
       <c r="O22">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="P22">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="Q22">
-        <v>3.41570573642</v>
+        <v>2.931982881263222</v>
       </c>
       <c r="R22">
-        <v>30.74135162778</v>
+        <v>26.387845931369</v>
       </c>
       <c r="S22">
-        <v>0.00142778501340974</v>
+        <v>0.001299670353538921</v>
       </c>
       <c r="T22">
-        <v>0.00142778501340974</v>
+        <v>0.001299670353538921</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.169900666666666</v>
+        <v>1.722740333333333</v>
       </c>
       <c r="H23">
-        <v>6.509702</v>
+        <v>5.168221</v>
       </c>
       <c r="I23">
-        <v>0.07051268393320077</v>
+        <v>0.06172379496251228</v>
       </c>
       <c r="J23">
-        <v>0.07051268393320077</v>
+        <v>0.06172379496251227</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>187.511841</v>
       </c>
       <c r="O23">
-        <v>0.804011796385049</v>
+        <v>0.7732971809418951</v>
       </c>
       <c r="P23">
-        <v>0.8040117963850492</v>
+        <v>0.7732971809418953</v>
       </c>
       <c r="Q23">
-        <v>135.627356264598</v>
+        <v>107.678070489429</v>
       </c>
       <c r="R23">
-        <v>1220.646206381382</v>
+        <v>969.102634404861</v>
       </c>
       <c r="S23">
-        <v>0.05669302967706394</v>
+        <v>0.04773083664154629</v>
       </c>
       <c r="T23">
-        <v>0.05669302967706395</v>
+        <v>0.04773083664154629</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,46 +1904,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.169900666666666</v>
+        <v>1.722740333333333</v>
       </c>
       <c r="H24">
-        <v>6.509702</v>
+        <v>5.168221</v>
       </c>
       <c r="I24">
-        <v>0.07051268393320077</v>
+        <v>0.06172379496251228</v>
       </c>
       <c r="J24">
-        <v>0.07051268393320077</v>
+        <v>0.06172379496251227</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.182903</v>
+        <v>0.4338690000000001</v>
       </c>
       <c r="N24">
-        <v>0.548709</v>
+        <v>1.301607</v>
       </c>
       <c r="O24">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265532</v>
       </c>
       <c r="P24">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265533</v>
       </c>
       <c r="Q24">
-        <v>0.3968813416353333</v>
+        <v>0.747443625683</v>
       </c>
       <c r="R24">
-        <v>3.571932074718</v>
+        <v>6.726992631147001</v>
       </c>
       <c r="S24">
-        <v>0.00016589872647601</v>
+        <v>0.0003313219621607424</v>
       </c>
       <c r="T24">
-        <v>0.00016589872647601</v>
+        <v>0.0003313219621607424</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.169900666666666</v>
+        <v>1.722740333333333</v>
       </c>
       <c r="H25">
-        <v>6.509702</v>
+        <v>5.168221</v>
       </c>
       <c r="I25">
-        <v>0.07051268393320077</v>
+        <v>0.06172379496251228</v>
       </c>
       <c r="J25">
-        <v>0.07051268393320077</v>
+        <v>0.06172379496251227</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>13.38529933333333</v>
+        <v>15.972384</v>
       </c>
       <c r="N25">
-        <v>40.155898</v>
+        <v>47.917152</v>
       </c>
       <c r="O25">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="P25">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="Q25">
-        <v>29.04476994693289</v>
+        <v>27.516270136288</v>
       </c>
       <c r="R25">
-        <v>261.402929522396</v>
+        <v>247.646431226592</v>
       </c>
       <c r="S25">
-        <v>0.01214088403634815</v>
+        <v>0.01219723374397536</v>
       </c>
       <c r="T25">
-        <v>0.01214088403634815</v>
+        <v>0.01219723374397536</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.169900666666666</v>
+        <v>1.722740333333333</v>
       </c>
       <c r="H26">
-        <v>6.509702</v>
+        <v>5.168221</v>
       </c>
       <c r="I26">
-        <v>0.07051268393320077</v>
+        <v>0.06172379496251228</v>
       </c>
       <c r="J26">
-        <v>0.07051268393320077</v>
+        <v>0.06172379496251227</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.09380766666666666</v>
+        <v>0.2157183333333333</v>
       </c>
       <c r="N26">
-        <v>0.281423</v>
+        <v>0.647155</v>
       </c>
       <c r="O26">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="P26">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="Q26">
-        <v>0.2035533184384444</v>
+        <v>0.3716266734727778</v>
       </c>
       <c r="R26">
-        <v>1.831979865946</v>
+        <v>3.344640061255</v>
       </c>
       <c r="S26">
-        <v>8.508647990293245E-05</v>
+        <v>0.0001647322612909544</v>
       </c>
       <c r="T26">
-        <v>8.508647990293245E-05</v>
+        <v>0.0001647322612909544</v>
       </c>
     </row>
   </sheetData>
